--- a/Experiences/ExperimentsMAJmardisoir.xlsx
+++ b/Experiences/ExperimentsMAJmardisoir.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -296,36 +296,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Total22 charge </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total21 charge </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pC</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Total12 charge </t>
     </r>
     <r>
@@ -412,6 +382,36 @@
         <scheme val="minor"/>
       </rPr>
       <t>pC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total21 charge µ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total22 charge µ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
     </r>
   </si>
 </sst>
@@ -3099,6 +3099,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3132,11 +3137,11 @@
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="Min Line DF" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="19" name="Total21 charge pC" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="19" name="Total21 charge µC" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="Max Line DF" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="21" name="Total22 charge pC" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="21" name="Total22 charge µC" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" name="Min Area DF" dataDxfId="30" totalsRowDxfId="29"/>
@@ -3503,46 +3508,46 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="41" customWidth="1"/>
+    <col min="11" max="12" width="10.796875" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" style="41" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" customWidth="1"/>
-    <col min="28" max="28" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" customWidth="1"/>
+    <col min="16" max="16" width="12.796875" customWidth="1"/>
+    <col min="17" max="17" width="11.796875" customWidth="1"/>
+    <col min="18" max="18" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.796875" customWidth="1"/>
+    <col min="20" max="20" width="13.19921875" customWidth="1"/>
+    <col min="21" max="21" width="11.796875" customWidth="1"/>
+    <col min="22" max="22" width="13.19921875" customWidth="1"/>
+    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.296875" customWidth="1"/>
+    <col min="27" max="27" width="14.19921875" customWidth="1"/>
+    <col min="28" max="28" width="17.296875" customWidth="1"/>
+    <col min="29" max="29" width="15.19921875" customWidth="1"/>
     <col min="30" max="30" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
+    <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H1" s="26" t="s">
         <v>49</v>
       </c>
@@ -3577,7 +3582,7 @@
       </c>
       <c r="AC1" s="49"/>
     </row>
-    <row r="2" spans="1:30" ht="26" customHeight="1">
+    <row r="2" spans="1:30" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F2" s="60"/>
       <c r="K2" s="74" t="s">
         <v>34</v>
@@ -3615,7 +3620,7 @@
       <c r="AB2" s="70"/>
       <c r="AC2" s="70"/>
     </row>
-    <row r="3" spans="1:30" ht="63" customHeight="1">
+    <row r="3" spans="1:30" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -3647,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>80</v>
@@ -3662,37 +3667,37 @@
         <v>81</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>82</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>83</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>84</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA3" s="47" t="s">
         <v>66</v>
@@ -3707,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="30">
+    <row r="4" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -3787,7 +3792,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="15"/>
     </row>
-    <row r="5" spans="1:30" s="19" customFormat="1" ht="30">
+    <row r="5" spans="1:30" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="19" customFormat="1" ht="45">
+    <row r="6" spans="1:30" s="19" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30">
+    <row r="7" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="30">
+    <row r="8" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -4114,7 +4119,7 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="1:30" ht="30">
+    <row r="9" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>6</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="30">
+    <row r="10" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -4278,7 +4283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="30">
+    <row r="11" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="30">
+    <row r="12" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -4448,7 +4453,7 @@
       </c>
       <c r="AD12" s="15"/>
     </row>
-    <row r="13" spans="1:30" ht="30">
+    <row r="13" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="30">
+    <row r="14" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>11</v>
       </c>
@@ -4612,7 +4617,7 @@
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
     </row>
-    <row r="15" spans="1:30" ht="30">
+    <row r="15" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>12</v>
       </c>
@@ -4698,7 +4703,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="15"/>
     </row>
-    <row r="16" spans="1:30" ht="30">
+    <row r="16" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>13</v>
       </c>
@@ -4784,7 +4789,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="15"/>
     </row>
-    <row r="17" spans="1:30" ht="30">
+    <row r="17" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -4878,7 +4883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="30">
+    <row r="18" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="30">
+    <row r="19" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>16</v>
       </c>
@@ -5015,25 +5020,33 @@
       <c r="N19" s="50">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O19" s="53"/>
+      <c r="O19" s="53">
+        <v>0.6</v>
+      </c>
       <c r="P19" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="53"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>0.8</v>
+      </c>
       <c r="R19" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="50"/>
+        <v>1.6</v>
+      </c>
+      <c r="S19" s="50">
+        <v>1</v>
+      </c>
       <c r="T19" s="50">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="50"/>
+        <v>1152</v>
+      </c>
+      <c r="U19" s="50">
+        <v>2</v>
+      </c>
       <c r="V19" s="50">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="W19" s="50"/>
       <c r="X19" s="50">
@@ -5050,7 +5063,7 @@
       <c r="AC19" s="58"/>
       <c r="AD19" s="58"/>
     </row>
-    <row r="20" spans="1:30" ht="30">
+    <row r="20" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>17</v>
       </c>
@@ -5140,7 +5153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="30">
+    <row r="21" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>18</v>
       </c>
@@ -5222,7 +5235,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:30" ht="30">
+    <row r="22" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="65"/>
       <c r="C22" s="13" t="s">
@@ -5278,7 +5291,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
     </row>
-    <row r="23" spans="1:30" ht="30">
+    <row r="23" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="65"/>
       <c r="C23" s="13" t="s">
@@ -5334,7 +5347,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
     </row>
-    <row r="24" spans="1:30" ht="30">
+    <row r="24" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="65"/>
       <c r="C24" s="13" t="s">
@@ -5390,7 +5403,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
     </row>
-    <row r="25" spans="1:30" ht="30">
+    <row r="25" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="65"/>
       <c r="C25" s="13" t="s">
@@ -5446,7 +5459,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="65"/>
       <c r="C26" s="13"/>
@@ -5496,7 +5509,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="65"/>
       <c r="C27" s="13"/>
@@ -5546,7 +5559,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="65"/>
       <c r="C28" s="13"/>
@@ -5596,7 +5609,7 @@
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="65"/>
       <c r="C29" s="13"/>
@@ -5646,7 +5659,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="65"/>
       <c r="C30" s="13"/>
@@ -5696,7 +5709,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="1:30" s="51" customFormat="1">
+    <row r="31" spans="1:30" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
       <c r="B31" s="68"/>
       <c r="C31" s="43"/>
@@ -5746,7 +5759,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="68"/>
       <c r="C32" s="43"/>
@@ -5796,7 +5809,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="68"/>
       <c r="C33" s="43"/>
@@ -5894,19 +5907,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="12"/>
-    <col min="3" max="3" width="16.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="12"/>
+    <col min="3" max="3" width="16.796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="7" max="7" width="13.69921875" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5961,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>41</v>
       </c>
@@ -5971,7 +5984,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -5996,7 +6009,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="75">
+    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -6019,7 +6032,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -6044,7 +6057,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
@@ -6069,7 +6082,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6084,7 +6097,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6099,7 +6112,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6114,7 +6127,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6129,7 +6142,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6144,7 +6157,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6159,7 +6172,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6174,7 +6187,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6189,7 +6202,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3"/>
@@ -6223,7 +6236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
